--- a/bricking/config_table.xlsx
+++ b/bricking/config_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{823635BF-9A19-4D71-96E4-CD48D81B60AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63D1E359-7EB5-491A-9745-098262C70685}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>BTC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,19 +30,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ETH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USDT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exchange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>min_spread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quoinex</t>
+  </si>
+  <si>
+    <t>huobipro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,34 +367,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1E-3</v>
@@ -408,12 +404,12 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5.0000000000000001E-3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1E-3</v>
@@ -422,21 +418,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1E-3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5.0000000000000001E-3</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
